--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_Ext_rows(1)/aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_Ext_rows(1)/aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="65">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -243,6 +243,9 @@
     <t>PPSNO</t>
   </si>
   <si>
+    <t>EE</t>
+  </si>
+  <si>
     <t>899555</t>
   </si>
   <si>
@@ -258,7 +261,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>7721.49</t>
+    <t>72679.83</t>
   </si>
   <si>
     <t>1_Errors_found</t>
@@ -1582,7 +1585,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1594,7 +1597,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -1611,13 +1614,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -1632,13 +1638,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>7211.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -1653,16 +1662,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -1674,9 +1686,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>1791.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>650.0</v>
       </c>
     </row>
@@ -1702,24 +1717,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +2007,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2004,7 +2019,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2021,13 +2036,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -2042,13 +2060,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>931.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -2063,16 +2084,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2084,9 +2108,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>3088.11</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1510.0</v>
       </c>
     </row>
@@ -2112,24 +2139,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2606,7 +2633,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2618,7 +2645,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2635,13 +2662,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -2656,13 +2686,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>931.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -2677,16 +2710,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2698,9 +2734,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
@@ -2726,24 +2765,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3312,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -3285,7 +3324,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -3302,13 +3341,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -3323,13 +3365,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>22666.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>906.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -3344,16 +3389,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>9583.33</v>
+      </c>
+      <c r="G3" s="43">
         <v>814.58</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3365,9 +3413,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>19333.33</v>
+      </c>
+      <c r="G4" s="43">
         <v>1598.87</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>580.0</v>
       </c>
     </row>
@@ -3382,7 +3433,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -3394,7 +3445,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -3411,13 +3462,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -3432,13 +3486,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>931.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -3453,16 +3510,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3474,16 +3534,19 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="46"/>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -3495,9 +3558,12 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
+        <v>10666.67</v>
+      </c>
+      <c r="G5" s="43">
         <v>426.67</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="43">
         <v>0.0</v>
       </c>
     </row>
@@ -3523,24 +3589,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4292,7 +4358,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -4304,7 +4370,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -4321,13 +4387,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -4342,13 +4411,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>116458.35</v>
+      </c>
+      <c r="G2" s="43">
         <v>3673.31</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -4363,16 +4435,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -4384,16 +4459,19 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="46"/>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -4405,9 +4483,12 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
+        <v>20000.0</v>
+      </c>
+      <c r="G5" s="43">
         <v>744.8</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="43">
         <v>413.33</v>
       </c>
     </row>
@@ -4433,24 +4514,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5008,7 +5089,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5020,7 +5101,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -5037,13 +5118,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -5058,13 +5142,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>1480.0</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -5079,16 +5166,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5100,16 +5190,19 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="46"/>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5121,9 +5214,12 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G5" s="43">
         <v>566.66</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="43">
         <v>200.0</v>
       </c>
     </row>
@@ -5149,24 +5245,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5724,7 +5820,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5736,7 +5832,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -5753,13 +5849,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -5774,13 +5873,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>1480.0</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -5795,16 +5897,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5816,16 +5921,19 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="46"/>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5837,9 +5945,12 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G5" s="43">
         <v>566.66</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="43">
         <v>200.0</v>
       </c>
     </row>
@@ -5865,24 +5976,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5907,24 +6018,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6482,7 +6593,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6494,7 +6605,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6511,13 +6622,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -6532,13 +6646,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>23291.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>1480.0</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -6553,16 +6670,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="43">
         <v>850.0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6574,16 +6694,19 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>21666.67</v>
+      </c>
+      <c r="G4" s="43">
         <v>2324.83</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="46"/>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -6595,9 +6718,12 @@
         <v>37</v>
       </c>
       <c r="F5" s="43">
+        <v>10000.0</v>
+      </c>
+      <c r="G5" s="43">
         <v>566.66</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="43">
         <v>200.0</v>
       </c>
     </row>
@@ -6623,24 +6749,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6651,7 +6777,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6662,40 +6788,46 @@
     <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="43">
+        <v>64958.34</v>
+      </c>
+      <c r="B2" s="43">
         <v>5221.49</v>
       </c>
-      <c r="B2" s="43">
+      <c r="C2" s="43">
         <v>2500.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6968,7 +7100,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6980,7 +7112,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6997,13 +7129,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -7018,13 +7153,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>22666.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>906.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -7039,16 +7177,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>9583.33</v>
+      </c>
+      <c r="G3" s="43">
         <v>814.58</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7060,9 +7201,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>19333.33</v>
+      </c>
+      <c r="G4" s="43">
         <v>1598.87</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>580.0</v>
       </c>
     </row>
@@ -7088,24 +7232,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7378,7 +7522,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -7390,7 +7534,7 @@
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -7407,13 +7551,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
@@ -7428,13 +7575,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
+        <v>22666.67</v>
+      </c>
+      <c r="G2" s="43">
         <v>906.67</v>
       </c>
-      <c r="G2" s="43">
+      <c r="H2" s="43">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
@@ -7449,16 +7599,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
+        <v>9583.33</v>
+      </c>
+      <c r="G3" s="43">
         <v>814.58</v>
       </c>
-      <c r="G3" s="43">
+      <c r="H3" s="43">
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46"/>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7470,9 +7623,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
+        <v>19333.33</v>
+      </c>
+      <c r="G4" s="43">
         <v>1598.87</v>
       </c>
-      <c r="G4" s="43">
+      <c r="H4" s="43">
         <v>580.0</v>
       </c>
     </row>
@@ -7498,24 +7654,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_Ext_rows(1)/aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_Ext_rows(1)/aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="118">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -297,7 +297,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -306,43 +306,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
-  </si>
-  <si>
-    <t>ILIM Test 2</t>
-  </si>
-  <si>
-    <t>1158565</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>7,433.97</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1155233</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -593,10 +590,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -625,7 +622,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -799,11 +796,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -2085,7 +2085,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -2716,7 +2716,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -2739,7 +2739,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -2762,7 +2762,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -3592,7 +3592,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -3615,7 +3615,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -3638,7 +3638,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4274,7 +4274,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -4297,7 +4297,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -4320,7 +4320,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4956,7 +4956,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -4979,7 +4979,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -5071,7 +5071,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -5094,7 +5094,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -5117,7 +5117,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -5753,7 +5753,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -5776,7 +5776,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -5799,7 +5799,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -5886,31 +5886,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="48" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5937,10 +5937,10 @@
         <v>76</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5948,7 +5948,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>73</v>
@@ -5957,19 +5957,19 @@
         <v>74</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -5977,7 +5977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>73</v>
@@ -5986,106 +5986,106 @@
         <v>74</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F15" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="H15" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="43" t="s">
         <v>86</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="C16" s="43" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>90</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="G16" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="H16" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="43" t="s">
         <v>93</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="43" t="s">
+      <c r="H17" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="43" t="s">
         <v>97</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="43" t="s">
+      <c r="H18" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="43" t="s">
         <v>101</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -6093,28 +6093,28 @@
         <v>28</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>103</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>104</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="G19" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="H19" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="I19" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -6122,28 +6122,28 @@
         <v>28</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="G20" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="43" t="s">
+      <c r="I20" s="43" t="s">
         <v>113</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -6151,28 +6151,28 @@
         <v>28</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="43" t="s">
+      <c r="I21" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6504,7 +6504,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -6527,7 +6527,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -6878,7 +6878,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -6901,7 +6901,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -7291,7 +7291,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -7314,7 +7314,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43" t="s">
